--- a/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
+++ b/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Documentos\SPRINT2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Documentos\Documentação\Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8749434A-3DD8-4284-BDF8-392382EAD981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68F26846-AAEB-45BF-B679-22FF4B890BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SB" sheetId="16" r:id="rId2"/>
     <sheet name="Dados" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,31 +39,6 @@
     <author>Alexander Barreira</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{CDAF273E-A20B-4D5C-B0D1-B3564A967A64}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alexander Barreira:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Preencher com a  Sigla do Artefato#o Número (ID) do requisito e o &lt;Grupo ao qual o Requisito faz parte&gt;
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E4" authorId="0" shapeId="0" xr:uid="{EE39FC19-3292-4006-90AF-BA8C8E76E8E0}">
       <text>
         <r>
@@ -94,312 +69,387 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="127">
+  <si>
+    <t>Product BackLog Classified (PBC)</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Artefato de Referência (XX#R)</t>
+  </si>
+  <si>
+    <t>Descrição do Requisito</t>
+  </si>
+  <si>
+    <t>Pontos</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Desejavél</t>
+  </si>
+  <si>
+    <t>Planejada</t>
+  </si>
+  <si>
+    <t>US#1 &lt;Cadastro&gt;</t>
+  </si>
+  <si>
+    <t>O sistema deve ter um cadastro de locador</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>US#1 &lt;usabilidade/UX&gt;</t>
+  </si>
+  <si>
+    <t>O Sistemas deverá ter um filtro especifico para cada periodo de aluguel (diária, semanal, mensal)</t>
+  </si>
+  <si>
+    <t>US#1&lt;usabilidade/UX&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sistema deverá ter um filtro de disponibilidade por data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema deverá filtrar os imóveis por valor selecionado </t>
+  </si>
+  <si>
+    <t>US#2&lt;usabilidade&gt;</t>
+  </si>
+  <si>
+    <t>O sistema deverá ter um formulário para criação de anuncio dos imóveis</t>
+  </si>
+  <si>
+    <t>US#2&lt;usabilidade/UX&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O formulário de anuncio de imóveis deverá ter um calendario para marcar os periodos disponíveis </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>US#3&lt;anuncio&gt;</t>
+  </si>
+  <si>
+    <t>O formulário de anuncio de imóveis deverá ter um campo de matricula do imóvel</t>
+  </si>
+  <si>
+    <t>US#3&lt;validação&gt;</t>
+  </si>
+  <si>
+    <t>O sistema deverá validar se o campo de matricula foi inserido ou se já existe</t>
+  </si>
+  <si>
+    <t>US#4&lt;anuncio&gt;</t>
+  </si>
+  <si>
+    <t>O formulário de anuncio de imóvel deverá ter a opção para upload de imagens</t>
+  </si>
+  <si>
+    <t>US#4&lt;validação&gt;</t>
+  </si>
+  <si>
+    <t>O formulário de anuncio de imóvel deverá ter  pelo menos uma imagem upada para ser validado</t>
+  </si>
+  <si>
+    <t>US#5&lt;usabilidade/UX&gt;</t>
+  </si>
+  <si>
+    <t>O formulário de anuncio de imóvel deverá estar separado por etapas para facilitar o preenchimento</t>
+  </si>
+  <si>
+    <t>O formulário de anuncio de imóvel deverá ter mascara em todos os input's</t>
+  </si>
+  <si>
+    <t>O formulário de anuncio de imóvel deverá conter textos de auto ajuda para o preenchimento dos campos</t>
+  </si>
+  <si>
+    <t>US#6&lt;simulador&gt;</t>
+  </si>
+  <si>
+    <t>O sistema deverá ter um simulador de valores para cada modalidade de aluguel</t>
+  </si>
+  <si>
+    <t>O simulador financeiro deverá ter a opção de simular pela quantidade de (dias/semanas/meses)</t>
+  </si>
+  <si>
+    <t>US#7&lt;avaliação de anuncio&gt;</t>
+  </si>
+  <si>
+    <t>O sistema deverá ter um sistema de avaliação nos anúncios</t>
+  </si>
+  <si>
+    <t>O sistema deverá ter um post de comentarios em cada anúncio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema deverar ter uma avaliação com rank de estrelas de 1 a 5 para cada anuncio </t>
+  </si>
+  <si>
+    <t>O sistema deverar exibir a média de estrelas em cada anúncio</t>
+  </si>
+  <si>
+    <t>US#8&lt;Gráfico de GANTT&gt;</t>
+  </si>
+  <si>
+    <t>US#9&lt;Product/Sprint Backlog&gt;</t>
+  </si>
+  <si>
+    <t>US#10&lt;Modelagem de Dados​&gt;</t>
+  </si>
+  <si>
+    <t>US#11Planilha de Arquitetura&gt;</t>
+  </si>
+  <si>
+    <t>US#12&lt;Diagrama de Solução de Software&gt;</t>
+  </si>
+  <si>
+    <t>US#13&lt;Interface WEB com regras de usabilidade&gt;</t>
+  </si>
+  <si>
+    <t>US#14&lt;2 CRUDs (SpringBoot + ORM)&gt;</t>
+  </si>
+  <si>
+    <t>Implementar e integrar nos Cruds</t>
+  </si>
+  <si>
+    <t>US#15&lt;Login/LogOff com ORM&gt;</t>
+  </si>
+  <si>
+    <t>Realizar o processo de logon com ORM</t>
+  </si>
+  <si>
+    <t>US#16&lt;Funcionalidade de exportação de arquivos&gt;</t>
+  </si>
+  <si>
+    <t>US#17&lt;Documento de Layout (Entrada e Saída)&gt;</t>
+  </si>
+  <si>
+    <t>Montar e estruturar o Layout</t>
+  </si>
+  <si>
+    <t>US#18&lt;Implementação de lista&gt;</t>
+  </si>
+  <si>
+    <t>US#19&lt;Padrão de projeto (2 tipos)​&gt;</t>
+  </si>
+  <si>
+    <t>Tarefa principal</t>
+  </si>
+  <si>
+    <t>Descrição da tarefa</t>
+  </si>
+  <si>
+    <t>Gráfico de GANTT</t>
+  </si>
+  <si>
+    <t>N° Fibonacci</t>
+  </si>
+  <si>
+    <t>Product/Sprint Backlog</t>
+  </si>
+  <si>
+    <t>0, 1, 1, 2, 3, 5, 8, 13, 21</t>
+  </si>
+  <si>
+    <t>Modelagem de Dados​</t>
+  </si>
+  <si>
+    <t>Planilha de Arquitetura</t>
+  </si>
+  <si>
+    <t>Diagrama de Solução de Software</t>
+  </si>
+  <si>
+    <t>Interface WEB com regras de usabilidade</t>
+  </si>
+  <si>
+    <t>2 CRUDs (SpringBoot + ORM)</t>
+  </si>
+  <si>
+    <t>Login/LogOff com ORM</t>
+  </si>
+  <si>
+    <t>Funcionalidade de exportação de arquivos</t>
+  </si>
+  <si>
+    <t>Documento de Layout (Entrada e Saída)</t>
+  </si>
+  <si>
+    <t>Implementação de lista</t>
+  </si>
+  <si>
+    <t>Padrão de projeto (2 tipos)​</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Cancelado</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>Congelada</t>
+  </si>
+  <si>
+    <t>Em Andamento</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
   <si>
     <t>∞</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Importante</t>
-  </si>
-  <si>
-    <t>Desejavél</t>
-  </si>
-  <si>
-    <t>Essencial</t>
-  </si>
-  <si>
-    <t>Descrição do Requisito</t>
-  </si>
-  <si>
-    <t>Pontos</t>
-  </si>
-  <si>
-    <t>US#1 &lt;Cadastro&gt;</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Feito</t>
-  </si>
-  <si>
-    <t>Cancelado</t>
-  </si>
-  <si>
-    <t>Em Andamento</t>
-  </si>
-  <si>
-    <t>Planejada</t>
-  </si>
-  <si>
-    <t>Congelada</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Product BackLog Classified (PBC)</t>
+    <t xml:space="preserve">Artefato (ferramenta) </t>
+  </si>
+  <si>
+    <t>sigla</t>
   </si>
   <si>
     <t>BPMN</t>
   </si>
   <si>
+    <t>BP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PROTOTIPO DE TELA </t>
   </si>
   <si>
+    <t>PT</t>
+  </si>
+  <si>
     <t>USER STORIES</t>
   </si>
   <si>
+    <t>US</t>
+  </si>
+  <si>
     <t>CANVAS</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
     <t>STORIE BOARD</t>
   </si>
   <si>
+    <t>SB</t>
+  </si>
+  <si>
     <t>MAPA DE EMPATIA</t>
   </si>
   <si>
+    <t>ME</t>
+  </si>
+  <si>
     <t>DESENHO DE ARQUITETURA</t>
   </si>
   <si>
+    <t>DE</t>
+  </si>
+  <si>
     <t>JORNADA DO USUÁRIO</t>
   </si>
   <si>
+    <t>JU</t>
+  </si>
+  <si>
     <t xml:space="preserve">DER </t>
   </si>
   <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>JU</t>
-  </si>
-  <si>
     <t>DR</t>
   </si>
   <si>
+    <t>USE CASE</t>
+  </si>
+  <si>
     <t>UC</t>
   </si>
   <si>
-    <t>USE CASE</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>Artefato de Referência (XX#R)</t>
-  </si>
-  <si>
-    <t>sigla</t>
+    <t>ENTREVISTA DE CAMPO</t>
   </si>
   <si>
     <t>EC</t>
   </si>
   <si>
-    <t>ENTREVISTA DE CAMPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artefato (ferramenta) </t>
-  </si>
-  <si>
-    <t>O Sistemas deverá ter um filtro especifico para cada periodo de aluguel (diária, semanal, mensal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Sistema deverá ter um filtro de disponibilidade por data </t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema deverá filtrar os imóveis por valor selecionado </t>
-  </si>
-  <si>
-    <t>US#1 &lt;usabilidade/UX&gt;</t>
-  </si>
-  <si>
-    <t>US#1&lt;usabilidade/UX&gt;</t>
-  </si>
-  <si>
-    <t>US#2&lt;usabilidade/UX&gt;</t>
-  </si>
-  <si>
-    <t>O sistema deverá ter um formulário para criação de anuncio dos imóveis</t>
-  </si>
-  <si>
-    <t>US#2&lt;usabilidade&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O formulário de anuncio de imóveis deverá ter um calendario para marcar os periodos disponíveis </t>
-  </si>
-  <si>
-    <t>US#3&lt;validação&gt;</t>
-  </si>
-  <si>
-    <t>US#3&lt;anuncio&gt;</t>
-  </si>
-  <si>
-    <t>US#4&lt;anuncio&gt;</t>
-  </si>
-  <si>
-    <t>O formulário de anuncio de imóvel deverá ter  pelo menos uma imagem upada para ser validado</t>
-  </si>
-  <si>
-    <t>US#5&lt;usabilidade/UX&gt;</t>
-  </si>
-  <si>
-    <t>US#4&lt;validação&gt;</t>
-  </si>
-  <si>
-    <t>O formulário de anuncio de imóvel deverá conter textos de auto ajuda para o preenchimento dos campos</t>
-  </si>
-  <si>
-    <t>US#6&lt;simulador&gt;</t>
-  </si>
-  <si>
-    <t>O sistema deverá ter um simulador de valores para cada modalidade de aluguel</t>
-  </si>
-  <si>
-    <t>O simulador financeiro deverá ter a opção de simular pela quantidade de (dias/semanas/meses)</t>
-  </si>
-  <si>
-    <t>US#7&lt;avaliação de anuncio&gt;</t>
-  </si>
-  <si>
-    <t>O sistema deverá ter um post de comentarios em cada anúncio</t>
-  </si>
-  <si>
-    <t>O sistema deverar exibir a média de estrelas em cada anúncio</t>
-  </si>
-  <si>
-    <t>O sistema deve ter um cadastro de locador</t>
-  </si>
-  <si>
-    <t>O formulário de anuncio de imóveis deverá ter um campo de matricula do imóvel</t>
-  </si>
-  <si>
-    <t>O sistema deverá validar se o campo de matricula foi inserido ou se já existe</t>
-  </si>
-  <si>
-    <t>O formulário de anuncio de imóvel deverá ter a opção para upload de imagens</t>
-  </si>
-  <si>
-    <t>O formulário de anuncio de imóvel deverá estar separado por etapas para facilitar o preenchimento</t>
-  </si>
-  <si>
-    <t>O formulário de anuncio de imóvel deverá ter mascara em todos os input's</t>
-  </si>
-  <si>
-    <t>O sistema deverá ter um sistema de avaliação nos anúncios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema deverar ter uma avaliação com rank de estrelas de 1 a 5 para cada anuncio </t>
-  </si>
-  <si>
-    <t>0, 1, 1, 2, 3, 5, 8, 13, 21</t>
-  </si>
-  <si>
-    <t>N° Fibonacci</t>
-  </si>
-  <si>
-    <t>Tarefa principal</t>
-  </si>
-  <si>
-    <t>Descrição da tarefa</t>
-  </si>
-  <si>
-    <t>User Story</t>
-  </si>
-  <si>
-    <t>Gráfico de GANTT</t>
-  </si>
-  <si>
-    <t>Product/Sprint Backlog</t>
-  </si>
-  <si>
-    <t>Modelagem de Dados​</t>
-  </si>
-  <si>
-    <t>Planilha de Arquitetura</t>
-  </si>
-  <si>
-    <t>Diagrama de Solução de Software</t>
-  </si>
-  <si>
-    <t>Interface WEB com regras de usabilidade</t>
-  </si>
-  <si>
-    <t>2 CRUDs (SpringBoot + ORM)</t>
-  </si>
-  <si>
-    <t>Login/LogOff com ORM</t>
-  </si>
-  <si>
-    <t>Funcionalidade de exportação de arquivos</t>
-  </si>
-  <si>
-    <t>Documento de Layout (Entrada e Saída)</t>
-  </si>
-  <si>
-    <t>Implementação de lista</t>
-  </si>
-  <si>
-    <t>Padrão de projeto (2 tipos)​</t>
-  </si>
-  <si>
-    <t>Separar as atividades em niveis de relevância</t>
-  </si>
-  <si>
-    <t>Criar as tabelas e realizar a implementação</t>
-  </si>
-  <si>
-    <t>Estruturar planilha de arquitetura</t>
-  </si>
-  <si>
-    <t>Fazer diagrama da solução de software</t>
-  </si>
-  <si>
-    <t>Acrescentar as regras na interface</t>
-  </si>
-  <si>
-    <t>Implementar e integrar nos Cruds</t>
-  </si>
-  <si>
-    <t>Realizar o processo de logon com ORM</t>
-  </si>
-  <si>
-    <t>Fazer com auxilio do CSV</t>
-  </si>
-  <si>
-    <t>Montar e estrturar o Layout</t>
-  </si>
-  <si>
-    <t>Usar lista no projeto</t>
-  </si>
-  <si>
-    <t>Escolher o padrão de projeto que melhor nos atende</t>
-  </si>
-  <si>
-    <t>Gráfico de evolução do projeto</t>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Gráfico de evolução e andamento do projeto</t>
+  </si>
+  <si>
+    <t>Separar as atividades em niveis de relevância e prioridade</t>
+  </si>
+  <si>
+    <t>Criar as tabelas e realizar a implementação no DER</t>
+  </si>
+  <si>
+    <t>Estruturar planilha de arquitetura seguindo o padrão</t>
+  </si>
+  <si>
+    <t>Fazer diagrama da solução de software seguindo os padrões estabelecidos</t>
+  </si>
+  <si>
+    <t>Acrescentar as regras na interface do projeto</t>
+  </si>
+  <si>
+    <t>Usar listas nas classes dentro do projeto</t>
+  </si>
+  <si>
+    <t>Escolher os padrões de projeto que melhor nos atende</t>
+  </si>
+  <si>
+    <t>Fazer com auxilio do CSV a exportação</t>
+  </si>
+  <si>
+    <t>Estruturar e montar o gráfico, atribuir atividades e colocar as fórmulas</t>
+  </si>
+  <si>
+    <t>Separar atividades, priorizar e coloca-lás em ordem</t>
+  </si>
+  <si>
+    <t>Estruturar o DER e implementar as classes</t>
+  </si>
+  <si>
+    <t>Montar a planilha e acrescentar os dados necessários</t>
+  </si>
+  <si>
+    <t>Fazer o diagrama seguindo a solução e arquitetura do projeto</t>
+  </si>
+  <si>
+    <t>Acrescentar e definir as regras de usabilidade</t>
+  </si>
+  <si>
+    <t>Implementar 2 Crud's com apoio do SpringBoot e ORM</t>
+  </si>
+  <si>
+    <t>Escolher os dois padrões de projeto: Observer e uma outra opção</t>
+  </si>
+  <si>
+    <t>Colocar listas nas classes dentro do projeto e implementar</t>
+  </si>
+  <si>
+    <t>Fazer seguindo o modelo e colocar dez dados como atributos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar ao código e exportar os arquivos que são necessários </t>
+  </si>
+  <si>
+    <t>Realizar o logon com ORM se adequando ao projeto</t>
   </si>
 </sst>
 </file>
@@ -409,7 +459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -445,12 +495,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -526,23 +570,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FFAE229D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FFAE229D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -557,6 +584,37 @@
     <font>
       <sz val="10"/>
       <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -601,12 +659,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -691,22 +749,123 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="hair">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,9 +892,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,7 +913,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -765,153 +924,300 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="21" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="21" builtinId="8"/>
+    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2326,29 +2632,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:H34"/>
+  <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="200.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="0.6640625" style="21" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="24" customWidth="1"/>
-    <col min="8" max="11" width="20.6640625" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="3.88671875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="200.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="0.6640625" style="19" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="22" customWidth="1"/>
+    <col min="8" max="11" width="20.6640625" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -2358,474 +2664,557 @@
       <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:8" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:8" s="25" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:8" s="23" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="D20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="C21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="D28" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="D29" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="D31" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="E31" s="27"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="D33" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="E33" s="27"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="D34" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="D35" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2833,76 +3222,121 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B5:E5 C5:C6 B6:B34">
-    <cfRule type="expression" dxfId="20" priority="34">
+    <cfRule type="expression" dxfId="33" priority="47">
       <formula>$B5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="35">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>$B5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="36">
+    <cfRule type="expression" dxfId="31" priority="49">
       <formula>$B5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="37">
+    <cfRule type="expression" dxfId="30" priority="50">
       <formula>$B5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="16" priority="26">
+    <cfRule type="expression" dxfId="29" priority="39">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="28" priority="40">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="27" priority="41">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="29">
+    <cfRule type="expression" dxfId="26" priority="42">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>$B6="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>$B6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>$B6="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>$B6="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C34">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="18" priority="26">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D34">
+    <cfRule type="expression" dxfId="17" priority="14">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>$B8="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>$B8="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>$B8="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="22">
+      <formula>$B8="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>$B35="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$B35="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$B35="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>$B35="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>$B35="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$B35="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$B35="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$B35="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$B8="Done!"</formula>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$B35="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$B8="Ongoing"</formula>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$B35="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>$B8="Blocked"</formula>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$B35="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$B8="Dropped"</formula>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$B35="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2919,13 +3353,13 @@
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B34</xm:sqref>
+          <xm:sqref>B5:B35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Dados!$A$14:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E5 E7:E34</xm:sqref>
+          <xm:sqref>E5 E7:E35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2935,384 +3369,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378867A-5387-429E-B87E-19913A3BDAD1}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="38" customWidth="1"/>
-    <col min="4" max="14" width="8.88671875" style="38"/>
-    <col min="15" max="15" width="21.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="1" width="34.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="31" customWidth="1"/>
+    <col min="4" max="14" width="8.88671875" style="31"/>
+    <col min="15" max="15" width="21.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="37"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="O2" s="38" t="s">
-        <v>74</v>
+      <c r="A1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="54">
+        <v>2</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="O3" s="41" t="s">
-        <v>73</v>
+      <c r="A3" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="54">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="40"/>
+      <c r="A4" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="54">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="40"/>
+      <c r="A5" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="54">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="40"/>
+      <c r="A6" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="54">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="40"/>
+      <c r="A7" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="54">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="40"/>
+      <c r="A8" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="54">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="40"/>
+      <c r="A9" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="54">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="40"/>
+      <c r="A10" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="54">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="40"/>
+      <c r="A11" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="54">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="40"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="40"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="40"/>
+      <c r="A12" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="58">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3338,48 +3558,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>2</v>
+      <c r="A1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="H6" s="13" t="s">
-        <v>77</v>
+      <c r="H6" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3400,7 +3620,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -3408,105 +3628,105 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>38</v>
+      <c r="A16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>17</v>
+      <c r="A17" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>18</v>
+      <c r="A18" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>19</v>
+      <c r="A19" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>20</v>
+      <c r="A20" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>21</v>
+      <c r="A21" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>22</v>
+      <c r="A22" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>23</v>
+      <c r="A23" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>24</v>
+      <c r="A24" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>25</v>
+      <c r="A25" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>35</v>
+      <c r="A26" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>40</v>
+      <c r="A27" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
+++ b/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Documentos\Documentação\Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68F26846-AAEB-45BF-B679-22FF4B890BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426FABCE-C8FC-4173-83EE-626F6DD90C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1033,15 +1033,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1085,6 +1076,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -2653,15 +2653,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="2:8" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:8" s="23" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       <c r="C15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="48" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="27"/>
@@ -2883,7 +2883,7 @@
       <c r="C16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="49" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="27"/>
@@ -2900,7 +2900,7 @@
       <c r="C17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="47" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="27"/>
@@ -2917,7 +2917,7 @@
       <c r="C18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="45" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="27"/>
@@ -2934,7 +2934,7 @@
       <c r="C19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="46" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="27"/>
@@ -2951,7 +2951,7 @@
       <c r="C20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="46" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="27"/>
@@ -2968,7 +2968,7 @@
       <c r="C21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="27"/>
@@ -2985,7 +2985,7 @@
       <c r="C22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="46" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="27"/>
@@ -3002,7 +3002,7 @@
       <c r="C23" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="27"/>
@@ -3206,7 +3206,7 @@
       <c r="C35" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="56" t="s">
         <v>113</v>
       </c>
       <c r="E35" s="27"/>
@@ -3392,18 +3392,18 @@
       <c r="B1" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="50" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="57" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="51">
         <v>2</v>
       </c>
       <c r="O2" s="31" t="s">
@@ -3411,13 +3411,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="52" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="51">
         <v>2</v>
       </c>
       <c r="O3" s="33" t="s">
@@ -3425,112 +3425,112 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="52" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="52" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="52" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="52" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="52" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="52" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="55">
         <v>2</v>
       </c>
     </row>

--- a/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
+++ b/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Documentos\Documentação\Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426FABCE-C8FC-4173-83EE-626F6DD90C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A913B9-E2A3-42AC-876B-309D37EFEDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2634,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
+++ b/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
@@ -5,26 +5,24 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Documentos\Documentação\Gráficos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Downloads\Dream House Rep\Documentos\Documentação\Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A913B9-E2A3-42AC-876B-309D37EFEDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974987B2-05E8-48B2-A19B-41ED857A7BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
     <sheet name="SB" sheetId="16" r:id="rId2"/>
     <sheet name="Dados" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -69,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -239,9 +237,6 @@
     <t>US#18&lt;Implementação de lista&gt;</t>
   </si>
   <si>
-    <t>US#19&lt;Padrão de projeto (2 tipos)​&gt;</t>
-  </si>
-  <si>
     <t>Tarefa principal</t>
   </si>
   <si>
@@ -386,9 +381,6 @@
     <t>EC</t>
   </si>
   <si>
-    <t>Sprint</t>
-  </si>
-  <si>
     <t>Gráfico de evolução e andamento do projeto</t>
   </si>
   <si>
@@ -450,6 +442,45 @@
   </si>
   <si>
     <t>Realizar o logon com ORM se adequando ao projeto</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Nível</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Padrão</t>
+  </si>
+  <si>
+    <t>Cor</t>
+  </si>
+  <si>
+    <t>URGENTE</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>BAIXA</t>
+  </si>
+  <si>
+    <t>MÍNIMA</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>US#19&lt;Padrão de projeto)​&gt;</t>
   </si>
 </sst>
 </file>
@@ -620,7 +651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,8 +694,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -869,6 +924,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -894,7 +1029,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,9 +1192,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1068,9 +1200,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1084,6 +1213,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1762,15 +1936,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>518160</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1817,15 +1991,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>556260</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1872,15 +2046,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>708660</xdr:colOff>
+          <xdr:colOff>704850</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>464820</xdr:colOff>
+          <xdr:colOff>466725</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1927,15 +2101,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>716280</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>518160</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1982,15 +2156,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>716280</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>518160</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2037,7 +2211,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2045,7 +2219,7 @@
           <xdr:col>20</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2098,9 +2272,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>487680</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2147,9 +2321,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
@@ -2208,9 +2382,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>487680</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2257,15 +2431,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>556260</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2634,37 +2808,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="200.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="0.6640625" style="19" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="22" customWidth="1"/>
-    <col min="8" max="11" width="20.6640625" style="20" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="3.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="200.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" style="19" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="22" customWidth="1"/>
+    <col min="8" max="11" width="20.7109375" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+    <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
-    </row>
-    <row r="3" spans="2:8" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:8" s="23" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
+    </row>
+    <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:8" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
@@ -2687,7 +2861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
@@ -2704,7 +2878,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
@@ -2723,7 +2897,7 @@
       </c>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
@@ -2740,7 +2914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
@@ -2757,7 +2931,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2774,7 +2948,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +2965,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
@@ -2808,7 +2982,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
@@ -2825,7 +2999,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
@@ -2842,7 +3016,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
@@ -2859,7 +3033,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +3050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
@@ -2893,7 +3067,7 @@
       </c>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>8</v>
       </c>
@@ -2910,7 +3084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
@@ -2927,7 +3101,7 @@
       </c>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
@@ -2944,7 +3118,7 @@
       </c>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>8</v>
       </c>
@@ -2961,7 +3135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>8</v>
       </c>
@@ -2978,7 +3152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
@@ -2995,7 +3169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>8</v>
       </c>
@@ -3012,7 +3186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="39" t="s">
         <v>8</v>
       </c>
@@ -3020,7 +3194,7 @@
         <v>42</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="25" t="s">
@@ -3029,7 +3203,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="39" t="s">
         <v>8</v>
       </c>
@@ -3037,7 +3211,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="25"/>
@@ -3046,7 +3220,7 @@
       </c>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="39" t="s">
         <v>8</v>
       </c>
@@ -3054,7 +3228,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="25"/>
@@ -3063,7 +3237,7 @@
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="39" t="s">
         <v>8</v>
       </c>
@@ -3071,7 +3245,7 @@
         <v>45</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="25"/>
@@ -3080,7 +3254,7 @@
       </c>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="39" t="s">
         <v>8</v>
       </c>
@@ -3088,7 +3262,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="25" t="s">
@@ -3097,7 +3271,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="39" t="s">
         <v>8</v>
       </c>
@@ -3105,7 +3279,7 @@
         <v>47</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="25" t="s">
@@ -3114,7 +3288,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="39" t="s">
         <v>8</v>
       </c>
@@ -3131,7 +3305,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="39" t="s">
         <v>8</v>
       </c>
@@ -3148,7 +3322,7 @@
       </c>
       <c r="H31" s="25"/>
     </row>
-    <row r="32" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="39" t="s">
         <v>8</v>
       </c>
@@ -3156,7 +3330,7 @@
         <v>52</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="25"/>
@@ -3165,7 +3339,7 @@
       </c>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="39" t="s">
         <v>8</v>
       </c>
@@ -3182,7 +3356,7 @@
       </c>
       <c r="H33" s="25"/>
     </row>
-    <row r="34" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="39" t="s">
         <v>8</v>
       </c>
@@ -3190,7 +3364,7 @@
         <v>55</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="25" t="s">
@@ -3199,15 +3373,15 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
     </row>
-    <row r="35" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>113</v>
+        <v>137</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>111</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="25" t="s">
@@ -3369,170 +3543,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378867A-5387-429E-B87E-19913A3BDAD1}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="31" customWidth="1"/>
-    <col min="4" max="14" width="8.88671875" style="31"/>
-    <col min="15" max="15" width="21.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="34.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="31" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="31"/>
+    <col min="6" max="6" width="15.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="31" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="31" customWidth="1"/>
+    <col min="10" max="14" width="8.85546875" style="31"/>
+    <col min="15" max="15" width="21.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="B2" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="71">
+        <v>3</v>
+      </c>
+      <c r="O2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="31" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="71">
+        <v>3</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C4" s="75">
         <v>2</v>
       </c>
-      <c r="O2" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="32" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C5" s="71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="75">
         <v>2</v>
       </c>
-      <c r="O3" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="51">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="75">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="51">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="75">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="51">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="75">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="32" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C13" s="73">
+        <v>1</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="59"/>
+      <c r="F14" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" s="59"/>
+      <c r="F15" s="63">
+        <v>1</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="65"/>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="59"/>
+      <c r="F16" s="63">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="55">
-        <v>2</v>
-      </c>
+      <c r="G16" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="74"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="59"/>
+      <c r="F17" s="63">
+        <v>3</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="66"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="59"/>
+      <c r="F18" s="63">
+        <v>4</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="67"/>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="19" spans="5:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="59"/>
+      <c r="F19" s="68">
+        <v>5</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="70"/>
+      <c r="J19" s="59"/>
+    </row>
+    <row r="20" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3540,6 +3819,7 @@
     <hyperlink ref="B1" location="PBC!A1" tooltip="Descrição do Requisito" display="Descrição da tarefa" xr:uid="{77C0DF93-E2B8-4305-8DD0-5DF026725A24}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3549,184 +3829,184 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.88671875" style="2"/>
+    <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="29" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8"/>
       <c r="H6" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="11" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3742,15 +4022,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>518160</xdr:colOff>
+                <xdr:colOff>514350</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>274320</xdr:colOff>
+                <xdr:colOff>276225</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>289560</xdr:rowOff>
+                <xdr:rowOff>285750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3767,15 +4047,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>556260</xdr:colOff>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>312420</xdr:colOff>
+                <xdr:colOff>314325</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3792,15 +4072,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>708660</xdr:colOff>
+                <xdr:colOff>704850</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>464820</xdr:colOff>
+                <xdr:colOff>466725</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3817,15 +4097,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>716280</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>518160</xdr:colOff>
+                <xdr:colOff>514350</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3842,15 +4122,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>716280</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>289560</xdr:rowOff>
+                <xdr:rowOff>285750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>518160</xdr:colOff>
+                <xdr:colOff>514350</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>289560</xdr:rowOff>
+                <xdr:rowOff>285750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3867,7 +4147,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -3875,7 +4155,7 @@
                 <xdr:col>20</xdr:col>
                 <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>33</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3898,9 +4178,9 @@
               </from>
               <to>
                 <xdr:col>28</xdr:col>
-                <xdr:colOff>487680</xdr:colOff>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3917,9 +4197,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>28</xdr:col>
@@ -3948,9 +4228,9 @@
               </from>
               <to>
                 <xdr:col>28</xdr:col>
-                <xdr:colOff>487680</xdr:colOff>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>289560</xdr:rowOff>
+                <xdr:rowOff>285750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3967,15 +4247,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
-                <xdr:colOff>68580</xdr:colOff>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>28</xdr:col>
-                <xdr:colOff>556260</xdr:colOff>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
+++ b/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Downloads\Dream House Rep\Documentos\Documentação\Gráficos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Documentos\Documentação\Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974987B2-05E8-48B2-A19B-41ED857A7BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A1925C-5D33-4DF4-8FE4-227CEBB7D8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
     <sheet name="SB" sheetId="16" r:id="rId2"/>
     <sheet name="Dados" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="174">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -481,6 +483,114 @@
   </si>
   <si>
     <t>US#19&lt;Padrão de projeto)​&gt;</t>
+  </si>
+  <si>
+    <t>Diagrama de solução de software - Componentes</t>
+  </si>
+  <si>
+    <t>Planilha de UAT</t>
+  </si>
+  <si>
+    <t>Implementação de pilha</t>
+  </si>
+  <si>
+    <t>Projeto WEB aderente com UX+UI</t>
+  </si>
+  <si>
+    <t>Documento de Layout de importação</t>
+  </si>
+  <si>
+    <t>Documento de Layout de exportação</t>
+  </si>
+  <si>
+    <t>Teste Unitário - API</t>
+  </si>
+  <si>
+    <t>Testes unitários (Alinhado com Yoshi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mínimo 4 Telas integradas - React </t>
+  </si>
+  <si>
+    <t>Exportação de dados para o arquivo texto</t>
+  </si>
+  <si>
+    <t>Importação de dados do arquivo texto</t>
+  </si>
+  <si>
+    <t>Fazer diagrama seguindo a solução com componentes</t>
+  </si>
+  <si>
+    <t>Fazer a planilha de acordo com métricas do projeto</t>
+  </si>
+  <si>
+    <t>Implementação de fila</t>
+  </si>
+  <si>
+    <t>Utilizar a classe de fila de objetos</t>
+  </si>
+  <si>
+    <t>Utilizar a classe de pilha de objetos</t>
+  </si>
+  <si>
+    <t>Deixar o projeto aderente as regras de UX e UI</t>
+  </si>
+  <si>
+    <t>Realizar a importação de dados para um arquivo texto</t>
+  </si>
+  <si>
+    <t>Realizar a importação de dados a partir do arquivo texto</t>
+  </si>
+  <si>
+    <t>Realizar testes na API com o objetivo de evitar falhas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação das demais telas no React e realizar a integração </t>
+  </si>
+  <si>
+    <t>Efetuar testes para evitar erros na aplicação</t>
+  </si>
+  <si>
+    <t>Documento de exportação de dados para um arquivo texto com header / corpo / trailer</t>
+  </si>
+  <si>
+    <t>Documento de importação de dados a partir de um arquivo texto com header / corpo / trailer, sendo que o corpo deverá ter mais de um nível</t>
+  </si>
+  <si>
+    <t>US#20&lt;Diagrama de solução de software - Componentes&gt;</t>
+  </si>
+  <si>
+    <t>US#21&lt;Planilha de UAT&gt;</t>
+  </si>
+  <si>
+    <t>US#22&lt;Implementação de pilha&gt;</t>
+  </si>
+  <si>
+    <t>US#23&lt;Projeto WEB aderente com UX+UI&gt;</t>
+  </si>
+  <si>
+    <t>US#24&lt;Importação de dados do arquivo texto&gt;</t>
+  </si>
+  <si>
+    <t>US#25&lt;Documento de Layout de importação&gt;</t>
+  </si>
+  <si>
+    <t>US#26&lt;Documento de Layout de exportação&gt;</t>
+  </si>
+  <si>
+    <t>US#27&lt;Testes unitários (Alinhado com Yoshi)&gt;</t>
+  </si>
+  <si>
+    <t>US#28&lt;Mínimo 4 Telas integradas - React &gt;</t>
+  </si>
+  <si>
+    <t>US#29&lt;Teste Unitário - API&gt;</t>
+  </si>
+  <si>
+    <t>US#30&lt;Exportação de dados para o arquivo texto&gt;</t>
+  </si>
+  <si>
+    <t>US#31&lt;Implementação de fila&gt;</t>
   </si>
 </sst>
 </file>
@@ -719,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1004,6 +1114,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1029,7 +1176,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,31 +1231,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1120,9 +1246,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1194,26 +1317,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1251,14 +1359,84 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1285,7 +1463,95 @@
     <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1936,15 +2202,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:colOff>274320</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1991,15 +2257,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>312420</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2046,15 +2312,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>464820</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2101,15 +2367,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>716280</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2156,15 +2422,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>716280</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2211,7 +2477,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2219,7 +2485,7 @@
           <xdr:col>20</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2272,9 +2538,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>487680</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2321,9 +2587,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
@@ -2382,9 +2648,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>487680</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2431,15 +2697,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2806,62 +3072,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:H35"/>
+  <dimension ref="B1:H47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" topLeftCell="C19" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="200.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="19" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="22" customWidth="1"/>
-    <col min="8" max="11" width="20.7109375" style="20" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="20"/>
+    <col min="1" max="1" width="3.88671875" style="76" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="200.6640625" style="76" customWidth="1"/>
+    <col min="5" max="5" width="0.6640625" style="78" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="76" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="79" customWidth="1"/>
+    <col min="8" max="11" width="20.6640625" style="76" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-    </row>
-    <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:8" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+    </row>
+    <row r="3" spans="2:8" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:8" s="80" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
@@ -2871,50 +3137,50 @@
       <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
@@ -2924,14 +3190,14 @@
       <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2941,14 +3207,14 @@
       <c r="D9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
@@ -2958,14 +3224,14 @@
       <c r="D10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
@@ -2975,14 +3241,14 @@
       <c r="D11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
@@ -2992,14 +3258,14 @@
       <c r="D12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
@@ -3009,14 +3275,14 @@
       <c r="D13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
@@ -3026,369 +3292,573 @@
       <c r="D14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="25" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="25" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39" t="s">
+    <row r="24" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="25" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="39" t="s">
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="39" t="s">
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="39" t="s">
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="39" t="s">
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="39" t="s">
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="25" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="39" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="39" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="39" t="s">
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="39" t="s">
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="39" t="s">
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="25" t="s">
+      <c r="E34" s="20"/>
+      <c r="F34" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="39" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="25" t="s">
+      <c r="E35" s="20"/>
+      <c r="F35" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3396,121 +3866,135 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B5:E5 C5:C6 B6:B34">
-    <cfRule type="expression" dxfId="33" priority="47">
+    <cfRule type="expression" dxfId="45" priority="73">
       <formula>$B5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="48">
+    <cfRule type="expression" dxfId="44" priority="74">
       <formula>$B5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="49">
+    <cfRule type="expression" dxfId="43" priority="75">
       <formula>$B5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="50">
+    <cfRule type="expression" dxfId="42" priority="76">
       <formula>$B5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="29" priority="39">
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="40">
+    <cfRule type="expression" dxfId="40" priority="66">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="41">
+    <cfRule type="expression" dxfId="39" priority="67">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="42">
+    <cfRule type="expression" dxfId="38" priority="68">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="37" priority="57">
       <formula>$B6="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="36" priority="58">
       <formula>$B6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="33">
+    <cfRule type="expression" dxfId="35" priority="59">
       <formula>$B6="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="34">
+    <cfRule type="expression" dxfId="34" priority="60">
       <formula>$B6="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C34">
-    <cfRule type="expression" dxfId="21" priority="23">
+  <conditionalFormatting sqref="C7:C34 C36:C47">
+    <cfRule type="expression" dxfId="33" priority="49">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="32" priority="50">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="25">
+    <cfRule type="expression" dxfId="31" priority="51">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="26">
+    <cfRule type="expression" dxfId="30" priority="52">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D34">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="29" priority="40">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="28" priority="45">
       <formula>$B8="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="27" priority="46">
       <formula>$B8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="26" priority="47">
       <formula>$B8="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="22">
+    <cfRule type="expression" dxfId="25" priority="48">
       <formula>$B8="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>$B35="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="23" priority="37">
       <formula>$B35="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="22" priority="38">
       <formula>$B35="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="21" priority="39">
       <formula>$B35="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula>$B35="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="19" priority="33">
       <formula>$B35="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="18" priority="34">
       <formula>$B35="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="17" priority="35">
       <formula>$B35="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="16" priority="27">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="15" priority="28">
       <formula>$B35="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="14" priority="29">
       <formula>$B35="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="13" priority="30">
       <formula>$B35="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="12" priority="31">
       <formula>$B35="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B47">
+    <cfRule type="expression" dxfId="11" priority="23">
+      <formula>$B36="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="24">
+      <formula>$B36="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="25">
+      <formula>$B36="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="26">
+      <formula>$B36="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3527,13 +4011,13 @@
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B35</xm:sqref>
+          <xm:sqref>B5:B47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Dados!$A$14:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E5 E7:E35</xm:sqref>
+          <xm:sqref>E5 E7:E47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3543,277 +4027,415 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378867A-5387-429E-B87E-19913A3BDAD1}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="31" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="31"/>
-    <col min="6" max="6" width="15.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="31" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="31" customWidth="1"/>
-    <col min="10" max="14" width="8.85546875" style="31"/>
-    <col min="15" max="15" width="21.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="34.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="23" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="23"/>
+    <col min="6" max="6" width="15.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="23" customWidth="1"/>
+    <col min="10" max="14" width="8.88671875" style="23"/>
+    <col min="15" max="15" width="21.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="58">
         <v>3</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="58">
         <v>3</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="58">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="58">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C10" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="71">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="67">
+        <v>1</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="61">
+        <v>2</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="58">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="72">
+      <c r="E15" s="46"/>
+      <c r="F15" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="73">
+      <c r="G15" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="67">
         <v>1</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E14" s="59"/>
-      <c r="F14" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="59"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="59"/>
-      <c r="F15" s="63">
+      <c r="E16" s="46"/>
+      <c r="F16" s="50">
+        <v>2</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="58">
+        <v>3</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="50">
+        <v>3</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="53"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="61">
+        <v>2</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="50">
+        <v>4</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="61">
+        <v>2</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="55">
+        <v>5</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="57"/>
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="61">
+        <v>2</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="67">
         <v>1</v>
       </c>
-      <c r="G15" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E16" s="59"/>
-      <c r="F16" s="63">
-        <v>2</v>
-      </c>
-      <c r="G16" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E17" s="59"/>
-      <c r="F17" s="63">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="58">
         <v>3</v>
       </c>
-      <c r="G17" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="59"/>
-    </row>
-    <row r="18" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="59"/>
-      <c r="F18" s="63">
-        <v>4</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="59"/>
-    </row>
-    <row r="19" spans="5:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="59"/>
-      <c r="F19" s="68">
-        <v>5</v>
-      </c>
-      <c r="G19" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="59"/>
-    </row>
-    <row r="20" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="67">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="PBC!A1" tooltip="Artefato de Referência (XX#R)" display="Tarefa principal" xr:uid="{D67C691F-7218-4113-A8E1-9129BD020CA5}"/>
     <hyperlink ref="B1" location="PBC!A1" tooltip="Descrição do Requisito" display="Descrição da tarefa" xr:uid="{77C0DF93-E2B8-4305-8DD0-5DF026725A24}"/>
@@ -3829,47 +4451,47 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="52.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -3878,42 +4500,42 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>80</v>
       </c>
@@ -3921,7 +4543,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>82</v>
       </c>
@@ -3929,7 +4551,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>84</v>
       </c>
@@ -3937,7 +4559,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>86</v>
       </c>
@@ -3945,7 +4567,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>88</v>
       </c>
@@ -3953,7 +4575,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>90</v>
       </c>
@@ -3961,7 +4583,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>92</v>
       </c>
@@ -3969,7 +4591,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>94</v>
       </c>
@@ -3977,7 +4599,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>96</v>
       </c>
@@ -3985,7 +4607,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>98</v>
       </c>
@@ -3993,7 +4615,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>100</v>
       </c>
@@ -4001,7 +4623,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>102</v>
       </c>
@@ -4022,15 +4644,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:colOff>518160</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>99060</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:colOff>274320</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
+                <xdr:rowOff>289560</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4047,15 +4669,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:colOff>556260</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:colOff>312420</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>83820</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4072,15 +4694,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
+                <xdr:colOff>464820</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4097,15 +4719,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:colOff>716280</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:colOff>518160</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4122,15 +4744,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:colOff>716280</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
+                <xdr:rowOff>289560</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:colOff>518160</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
+                <xdr:rowOff>289560</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4147,7 +4769,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>7620</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -4155,7 +4777,7 @@
                 <xdr:col>20</xdr:col>
                 <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>33</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4178,9 +4800,9 @@
               </from>
               <to>
                 <xdr:col>28</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>487680</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4197,9 +4819,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>7620</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>160020</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>28</xdr:col>
@@ -4228,9 +4850,9 @@
               </from>
               <to>
                 <xdr:col>28</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>487680</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
+                <xdr:rowOff>289560</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4247,15 +4869,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:colOff>68580</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>28</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:colOff>556260</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>99060</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
+++ b/Documentação/Gráficos/PBC - Product Backlog Classified V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Documentos\Documentação\Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A1925C-5D33-4DF4-8FE4-227CEBB7D8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F238229-CB6B-40F2-B58D-285ADDE354AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="177">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -591,6 +591,15 @@
   </si>
   <si>
     <t>US#31&lt;Implementação de fila&gt;</t>
+  </si>
+  <si>
+    <t>White Paper do projeto</t>
+  </si>
+  <si>
+    <t>Criar um documento oficial referente ao projeto</t>
+  </si>
+  <si>
+    <t>US#32&lt;White Paper do projeto&gt;</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1185,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,15 +1374,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1438,6 +1438,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1466,29 +1476,33 @@
   <dxfs count="46">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3072,39 +3086,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:H47"/>
+  <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C19" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C25" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="76" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="76" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" style="77" customWidth="1"/>
-    <col min="4" max="4" width="200.6640625" style="76" customWidth="1"/>
-    <col min="5" max="5" width="0.6640625" style="78" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="76" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="79" customWidth="1"/>
-    <col min="8" max="11" width="20.6640625" style="76" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="76"/>
+    <col min="1" max="1" width="3.88671875" style="73" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="200.6640625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="0.6640625" style="75" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="73" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="76" customWidth="1"/>
+    <col min="8" max="11" width="20.6640625" style="73" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="2:8" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:8" s="80" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" s="77" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -3151,7 +3165,7 @@
       <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="78" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -3167,7 +3181,7 @@
       <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="79" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -3311,7 +3325,7 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="83"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="18" t="s">
         <v>11</v>
       </c>
@@ -3361,7 +3375,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="83"/>
+      <c r="F18" s="80"/>
       <c r="G18" s="18" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3677,7 @@
       <c r="C36" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="71" t="s">
+      <c r="D36" s="68" t="s">
         <v>149</v>
       </c>
       <c r="E36" s="20"/>
@@ -3677,7 +3691,7 @@
       <c r="B37" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="70" t="s">
         <v>163</v>
       </c>
       <c r="D37" s="36" t="s">
@@ -3748,7 +3762,7 @@
       <c r="C41" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="84" t="s">
+      <c r="D41" s="81" t="s">
         <v>161</v>
       </c>
       <c r="E41" s="20"/>
@@ -3765,7 +3779,7 @@
       <c r="C42" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="84" t="s">
+      <c r="D42" s="81" t="s">
         <v>160</v>
       </c>
       <c r="E42" s="20"/>
@@ -3779,7 +3793,7 @@
       <c r="B43" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="69" t="s">
         <v>169</v>
       </c>
       <c r="D43" s="36" t="s">
@@ -3796,7 +3810,7 @@
       <c r="B44" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="75" t="s">
+      <c r="C44" s="72" t="s">
         <v>170</v>
       </c>
       <c r="D44" s="36" t="s">
@@ -3813,7 +3827,7 @@
       <c r="B45" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="72" t="s">
         <v>171</v>
       </c>
       <c r="D45" s="36" t="s">
@@ -3830,7 +3844,7 @@
       <c r="B46" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="71" t="s">
         <v>172</v>
       </c>
       <c r="D46" s="36" t="s">
@@ -3847,7 +3861,7 @@
       <c r="B47" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="69" t="s">
         <v>173</v>
       </c>
       <c r="D47" s="36" t="s">
@@ -3859,6 +3873,20 @@
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3866,135 +3894,149 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B5:E5 C5:C6 B6:B34">
-    <cfRule type="expression" dxfId="45" priority="73">
+    <cfRule type="expression" dxfId="45" priority="77">
       <formula>$B5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="74">
+    <cfRule type="expression" dxfId="44" priority="78">
       <formula>$B5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="75">
+    <cfRule type="expression" dxfId="43" priority="79">
       <formula>$B5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="76">
+    <cfRule type="expression" dxfId="42" priority="80">
       <formula>$B5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="41" priority="65">
+    <cfRule type="expression" dxfId="41" priority="69">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="66">
+    <cfRule type="expression" dxfId="40" priority="70">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="67">
+    <cfRule type="expression" dxfId="39" priority="71">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="68">
+    <cfRule type="expression" dxfId="38" priority="72">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="expression" dxfId="37" priority="57">
+    <cfRule type="expression" dxfId="37" priority="61">
       <formula>$B6="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="58">
+    <cfRule type="expression" dxfId="36" priority="62">
       <formula>$B6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="59">
+    <cfRule type="expression" dxfId="35" priority="63">
       <formula>$B6="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="60">
+    <cfRule type="expression" dxfId="34" priority="64">
       <formula>$B6="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C34 C36:C47">
-    <cfRule type="expression" dxfId="33" priority="49">
+    <cfRule type="expression" dxfId="33" priority="53">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="50">
+    <cfRule type="expression" dxfId="32" priority="54">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="51">
+    <cfRule type="expression" dxfId="31" priority="55">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="52">
+    <cfRule type="expression" dxfId="30" priority="56">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D34">
-    <cfRule type="expression" dxfId="29" priority="40">
+    <cfRule type="expression" dxfId="29" priority="44">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="45">
+    <cfRule type="expression" dxfId="28" priority="49">
       <formula>$B8="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="46">
+    <cfRule type="expression" dxfId="27" priority="50">
       <formula>$B8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="47">
+    <cfRule type="expression" dxfId="26" priority="51">
       <formula>$B8="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="48">
+    <cfRule type="expression" dxfId="25" priority="52">
       <formula>$B8="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>$B35="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="37">
+    <cfRule type="expression" dxfId="23" priority="41">
       <formula>$B35="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38">
+    <cfRule type="expression" dxfId="22" priority="42">
       <formula>$B35="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="39">
+    <cfRule type="expression" dxfId="21" priority="43">
       <formula>$B35="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="20" priority="32">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>$B35="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="33">
+    <cfRule type="expression" dxfId="19" priority="37">
       <formula>$B35="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="34">
+    <cfRule type="expression" dxfId="18" priority="38">
       <formula>$B35="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="35">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>$B35="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="16" priority="27">
+    <cfRule type="expression" dxfId="16" priority="31">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="28">
+    <cfRule type="expression" dxfId="15" priority="32">
       <formula>$B35="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="29">
+    <cfRule type="expression" dxfId="14" priority="33">
       <formula>$B35="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="30">
+    <cfRule type="expression" dxfId="13" priority="34">
       <formula>$B35="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="31">
+    <cfRule type="expression" dxfId="12" priority="35">
       <formula>$B35="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B47">
-    <cfRule type="expression" dxfId="11" priority="23">
+    <cfRule type="expression" dxfId="11" priority="27">
       <formula>$B36="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24">
+    <cfRule type="expression" dxfId="10" priority="28">
       <formula>$B36="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="25">
+    <cfRule type="expression" dxfId="9" priority="29">
       <formula>$B36="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="26">
+    <cfRule type="expression" dxfId="8" priority="30">
       <formula>$B36="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$B48="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$B48="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$B48="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$B48="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -4017,7 +4059,7 @@
           <x14:formula1>
             <xm:f>Dados!$A$14:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E5 E7:E47</xm:sqref>
+          <xm:sqref>E5 E7:E48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4027,10 +4069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378867A-5387-429E-B87E-19913A3BDAD1}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4187,13 +4229,13 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="64">
         <v>1</v>
       </c>
       <c r="E13" s="46"/>
@@ -4204,7 +4246,7 @@
       <c r="J13" s="46"/>
     </row>
     <row r="14" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="65" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="45" t="s">
@@ -4229,7 +4271,7 @@
       <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="66" t="s">
         <v>139</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -4258,7 +4300,7 @@
       <c r="B16" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="64">
         <v>1</v>
       </c>
       <c r="E16" s="46"/>
@@ -4321,10 +4363,10 @@
       <c r="J18" s="46"/>
     </row>
     <row r="19" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="67" t="s">
         <v>161</v>
       </c>
       <c r="C19" s="61">
@@ -4347,7 +4389,7 @@
       <c r="A20" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="67" t="s">
         <v>160</v>
       </c>
       <c r="C20" s="61">
@@ -4361,13 +4403,13 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="66" t="s">
         <v>145</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="64">
         <v>1</v>
       </c>
     </row>
@@ -4378,18 +4420,18 @@
       <c r="B22" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="66" t="s">
         <v>144</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="64">
         <v>1</v>
       </c>
     </row>
@@ -4405,14 +4447,25 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="64">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="58">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
